--- a/convergence test.xlsx
+++ b/convergence test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="18468" windowHeight="9420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="convergent test" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="58">
   <si>
     <t>intancela21</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>neg-t</t>
+  </si>
+  <si>
+    <t>per pos linear</t>
   </si>
 </sst>
 </file>
@@ -5531,7 +5534,7 @@
                   <c:v>per negative</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>per pos linr</c:v>
+                  <c:v>per pos linear</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>per pos pow2</c:v>
@@ -5836,7 +5839,7 @@
                   <c:v>per negative</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>per pos linr</c:v>
+                  <c:v>per pos linear</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>per pos pow2</c:v>
@@ -5942,23 +5945,34 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr defTabSz="914400">
-                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                    <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                    <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                    <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                    <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                  </a:rPr>
                   <a:t>PER variants</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+                <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                  <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                  <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -5993,16 +6007,17 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
@@ -6018,6 +6033,7 @@
         <c:axId val="619570693"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6042,23 +6058,34 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr defTabSz="914400">
-                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                    <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                    <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                    <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                    <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                  </a:rPr>
                   <a:t>make span of la21</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+                <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                  <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                  <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -6088,16 +6115,17 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
@@ -6105,6 +6133,7 @@
         <c:crossAx val="979724978"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="30"/>
       </c:valAx>
       <c:catAx>
         <c:axId val="657929799"/>
@@ -6121,16 +6150,17 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
@@ -6146,6 +6176,7 @@
         <c:axId val="26668819"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1800"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -6156,23 +6187,34 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr defTabSz="914400">
-                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                    <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                    <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>convergence time</a:t>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                    <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                    <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                  </a:rPr>
+                  <a:t>convergence tim e /s</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+                <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                  <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                  <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -6202,16 +6244,17 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
@@ -6219,6 +6262,7 @@
         <c:crossAx val="657929799"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="300"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -6230,6 +6274,52 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+                <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -6244,16 +6334,17 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+              <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+              <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
             </a:defRPr>
           </a:pPr>
         </a:p>
@@ -6283,7 +6374,12 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr lang="zh-CN"/>
+        <a:defRPr lang="zh-CN" sz="1400">
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+          <a:ea typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+          <a:sym typeface="Times New Roman" panose="02020603050405020304" charset="0"/>
+        </a:defRPr>
       </a:pPr>
     </a:p>
   </c:txPr>
@@ -8037,16 +8133,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>256540</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>195580</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>154305</xdr:rowOff>
+      <xdr:rowOff>100965</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>109855</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>70485</xdr:rowOff>
+      <xdr:colOff>437515</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8054,8 +8150,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6596380" y="885825"/>
-        <a:ext cx="7168515" cy="3756660"/>
+        <a:off x="5651500" y="832485"/>
+        <a:ext cx="8441055" cy="4107180"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8357,7 +8453,7 @@
   <sheetPr/>
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16:K17"/>
     </sheetView>
   </sheetViews>
@@ -16429,8 +16525,8 @@
   <sheetPr/>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V22" sqref="V22"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -16741,7 +16837,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="B14">
         <v>1157.8</v>
